--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -96,7 +96,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00000000;[RED]\-#,##0.00000000"/>
     <numFmt numFmtId="167" formatCode="0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -143,27 +143,9 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -258,7 +240,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -279,7 +261,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -291,87 +273,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -558,27 +516,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.47"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="40.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.95"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -591,65 +549,54 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" s="8" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" s="8" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" s="8" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" s="8" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="8" t="n">
         <v>2276.16</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -658,15 +605,13 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" s="8" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -674,613 +619,568 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="I7" s="0"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="11" t="n">
         <f aca="false">(100-B3)/100</f>
         <v>0.95</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="I8" s="0"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="11" t="n">
         <f aca="false">1+(B2/100)</f>
         <v>1.05</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="I9" s="0"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="14" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="I10" s="0"/>
+      <c r="B10" s="11" t="n">
+        <v>0.9982</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="I11" s="0"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="I12" s="0"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
+      <c r="A13" s="12" t="n">
         <v>0.05</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18" t="n">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="n">
+      <c r="A14" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="B14" s="20" t="n">
+      <c r="B14" s="15" t="n">
         <f aca="false">B19/B17</f>
-        <v>0.00878672852523548</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="I14" s="0"/>
+        <v>0.00219668213130887</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="n">
+      <c r="A15" s="17" t="n">
         <v>-0.05</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18" t="n">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="n">
         <f aca="false">B14+C20</f>
-        <v>0.0110990255055606</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="I15" s="0"/>
+        <v>0.004508979111634</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="n">
+      <c r="A16" s="17" t="n">
         <v>-0.1</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18" t="n">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="n">
         <f aca="false">C15+D20</f>
-        <v>0.0135330223269555</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
+        <v>0.00694297593302887</v>
+      </c>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="24" t="n">
+      <c r="B17" s="19" t="n">
         <f aca="false">B5</f>
         <v>2276.16</v>
       </c>
-      <c r="C17" s="24" t="n">
+      <c r="C17" s="19" t="n">
         <f aca="false">B17*B8</f>
         <v>2162.352</v>
       </c>
-      <c r="D17" s="24" t="n">
+      <c r="D17" s="19" t="n">
         <f aca="false">C17*B8</f>
         <v>2054.2344</v>
       </c>
-      <c r="E17" s="24" t="n">
+      <c r="E17" s="19" t="n">
         <f aca="false">B17*B9</f>
         <v>2389.968</v>
       </c>
-      <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="24" t="n">
+      <c r="B18" s="19" t="n">
         <f aca="false">B19</f>
-        <v>20</v>
-      </c>
-      <c r="C18" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="19" t="n">
         <f aca="false">B14*C17</f>
-        <v>19</v>
-      </c>
-      <c r="D18" s="24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D18" s="19" t="n">
         <f aca="false">C15*D17</f>
-        <v>22.8</v>
-      </c>
-      <c r="E18" s="24" t="n">
+        <v>9.2625</v>
+      </c>
+      <c r="E18" s="19" t="n">
         <f aca="false">D16*E17</f>
-        <v>32.3434903047091</v>
-      </c>
-      <c r="I18" s="0"/>
+        <v>16.5934903047091</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="25" t="n">
+      <c r="B19" s="20" t="n">
         <f aca="false">B6</f>
-        <v>20</v>
-      </c>
-      <c r="C19" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="20" t="n">
         <f aca="false">B1</f>
         <v>5</v>
       </c>
-      <c r="D19" s="25" t="n">
+      <c r="D19" s="20" t="n">
         <f aca="false">B1</f>
         <v>5</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="I19" s="0"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="24" t="n">
+      <c r="B20" s="19" t="n">
         <f aca="false">B19/B17</f>
-        <v>0.00878672852523548</v>
-      </c>
-      <c r="C20" s="24" t="n">
+        <v>0.00219668213130887</v>
+      </c>
+      <c r="C20" s="19" t="n">
         <f aca="false">C19/C17</f>
         <v>0.00231229698032513</v>
       </c>
-      <c r="D20" s="24" t="n">
+      <c r="D20" s="19" t="n">
         <f aca="false">D19/D17</f>
         <v>0.00243399682139487</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="I20" s="0"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="25" t="n">
+      <c r="B21" s="20" t="n">
         <f aca="false">B4-B19</f>
-        <v>80</v>
-      </c>
-      <c r="C21" s="25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21" s="20" t="n">
         <f aca="false">B21-C19</f>
-        <v>75</v>
-      </c>
-      <c r="D21" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" s="20" t="n">
         <f aca="false">C21-D19</f>
-        <v>70</v>
-      </c>
-      <c r="E21" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20" t="n">
         <f aca="false">D21</f>
-        <v>70</v>
-      </c>
-      <c r="I21" s="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24" t="n">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19" t="n">
         <f aca="false">D16</f>
-        <v>0.0135330223269555</v>
-      </c>
-      <c r="I22" s="0"/>
+        <v>0.00694297593302887</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24" t="n">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19" t="n">
         <f aca="false">(E21+E18)-B4</f>
-        <v>2.34349030470915</v>
-      </c>
-      <c r="I23" s="0"/>
+        <v>1.59349030470914</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24" t="n">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19" t="n">
         <f aca="false">E23*B10^4</f>
-        <v>2.33413039506052</v>
-      </c>
-      <c r="I24" s="0"/>
+        <v>1.58204811481055</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="I25" s="0"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="n">
+      <c r="A26" s="12" t="n">
         <v>0.05</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18" t="n">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="I26" s="0"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="n">
+      <c r="A27" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="B27" s="20" t="n">
+      <c r="B27" s="15" t="n">
         <f aca="false">B32/B30</f>
-        <v>0.00878672852523548</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="27"/>
+        <v>0.00219668213130887</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="n">
+      <c r="A28" s="17" t="n">
         <v>-0.05</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18" t="n">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="n">
         <f aca="false">B27+C33</f>
-        <v>0.0110990255055606</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="27"/>
-      <c r="I28" s="0"/>
+        <v>0.004508979111634</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="n">
+      <c r="A29" s="17" t="n">
         <v>-0.1</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="27"/>
-      <c r="I29" s="0"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="24" t="n">
+      <c r="B30" s="19" t="n">
         <f aca="false">B5</f>
         <v>2276.16</v>
       </c>
-      <c r="C30" s="24" t="n">
+      <c r="C30" s="19" t="n">
         <f aca="false">B30*B8</f>
         <v>2162.352</v>
       </c>
-      <c r="D30" s="24" t="n">
+      <c r="D30" s="19" t="n">
         <f aca="false">B30*B9</f>
         <v>2389.968</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="I30" s="0"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="24" t="n">
+      <c r="B31" s="19" t="n">
         <f aca="false">B32</f>
-        <v>20</v>
-      </c>
-      <c r="C31" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" s="19" t="n">
         <f aca="false">B27*C30</f>
-        <v>19</v>
-      </c>
-      <c r="D31" s="24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D31" s="19" t="n">
         <f aca="false">C28*D30</f>
-        <v>26.5263157894737</v>
-      </c>
-      <c r="E31" s="27"/>
-      <c r="I31" s="0"/>
+        <v>10.7763157894737</v>
+      </c>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="25" t="n">
+      <c r="B32" s="20" t="n">
         <f aca="false">B6</f>
-        <v>20</v>
-      </c>
-      <c r="C32" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" s="20" t="n">
         <f aca="false">B1</f>
         <v>5</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="27"/>
-      <c r="I32" s="0"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="24" t="n">
+      <c r="B33" s="19" t="n">
         <f aca="false">B32/B30</f>
-        <v>0.00878672852523548</v>
-      </c>
-      <c r="C33" s="24" t="n">
+        <v>0.00219668213130887</v>
+      </c>
+      <c r="C33" s="19" t="n">
         <f aca="false">C32/C30</f>
         <v>0.00231229698032513</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="27"/>
-      <c r="I33" s="0"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="25" t="n">
+      <c r="B34" s="20" t="n">
         <f aca="false">B4-B32</f>
-        <v>80</v>
-      </c>
-      <c r="C34" s="25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C34" s="20" t="n">
         <f aca="false">B34-C32</f>
-        <v>75</v>
-      </c>
-      <c r="D34" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D34" s="20" t="n">
         <f aca="false">C34</f>
-        <v>75</v>
-      </c>
-      <c r="E34" s="27"/>
-      <c r="I34" s="0"/>
+        <v>6</v>
+      </c>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24" t="n">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19" t="n">
         <f aca="false">C28</f>
-        <v>0.0110990255055606</v>
-      </c>
-      <c r="E35" s="27"/>
-      <c r="I35" s="0"/>
+        <v>0.004508979111634</v>
+      </c>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24" t="n">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19" t="n">
         <f aca="false">(D34+D31)-B4</f>
-        <v>1.52631578947369</v>
-      </c>
-      <c r="E36" s="27"/>
-      <c r="I36" s="0"/>
+        <v>0.776315789473689</v>
+      </c>
+      <c r="E36" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24" t="n">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19" t="n">
         <f aca="false">D36*B10^3</f>
-        <v>1.52174141952632</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="I37" s="0"/>
+        <v>0.772131225472531</v>
+      </c>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="I38" s="0"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="n">
+      <c r="A39" s="12" t="n">
         <v>0.05</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18" t="n">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19" t="n">
+      <c r="A40" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="B40" s="20" t="n">
+      <c r="B40" s="15" t="n">
         <f aca="false">B45/B43</f>
-        <v>0.00878672852523548</v>
-      </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="I40" s="0"/>
+        <v>0.00219668213130887</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22" t="n">
+      <c r="A41" s="17" t="n">
         <v>-0.05</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="I41" s="0"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22" t="n">
+      <c r="A42" s="17" t="n">
         <v>-0.1</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="I42" s="0"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="24" t="n">
+      <c r="B43" s="19" t="n">
         <f aca="false">B5</f>
         <v>2276.16</v>
       </c>
-      <c r="C43" s="24" t="n">
+      <c r="C43" s="19" t="n">
         <f aca="false">B43*B9</f>
         <v>2389.968</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="I43" s="0"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="24" t="n">
+      <c r="B44" s="19" t="n">
         <f aca="false">B45</f>
-        <v>20</v>
-      </c>
-      <c r="C44" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" s="19" t="n">
         <f aca="false">B40*C43</f>
-        <v>21</v>
-      </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="I44" s="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
     </row>
     <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="25" t="n">
+      <c r="B45" s="20" t="n">
         <f aca="false">B6</f>
-        <v>20</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="I45" s="0"/>
+        <v>5</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
     </row>
     <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="24" t="n">
+      <c r="B46" s="19" t="n">
         <f aca="false">B45/B43</f>
-        <v>0.00878672852523548</v>
-      </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="I46" s="0"/>
+        <v>0.00219668213130887</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
     </row>
     <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="25" t="n">
+      <c r="B47" s="20" t="n">
         <f aca="false">B4-B45</f>
-        <v>80</v>
-      </c>
-      <c r="C47" s="25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C47" s="20" t="n">
         <f aca="false">B47</f>
-        <v>80</v>
-      </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="I47" s="0"/>
+        <v>11</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
     </row>
     <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24" t="n">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19" t="n">
         <f aca="false">B40</f>
-        <v>0.00878672852523548</v>
-      </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="I48" s="0"/>
+        <v>0.00219668213130887</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
     </row>
     <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24" t="n">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19" t="n">
         <f aca="false">(C47+C44)-B4</f>
-        <v>1</v>
-      </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="I49" s="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
     </row>
     <row r="50" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24" t="n">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19" t="n">
         <f aca="false">C49*B10^2</f>
-        <v>0.998001</v>
-      </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="27"/>
-      <c r="I50" s="0"/>
+        <v>0.24910081</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1313,12 +1213,12 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="1" t="n">
         <v>12132323</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расчеты доходности" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t xml:space="preserve">USDT</t>
   </si>
@@ -83,7 +83,28 @@
     <t xml:space="preserve">Доход с учетом всех комиссий</t>
   </si>
   <si>
-    <t xml:space="preserve">акак</t>
+    <t xml:space="preserve">USDT покупка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курс монеты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Усреднение курса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курс продажи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество купленных монет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего монет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прибыль при продажи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прибыль — капитал</t>
   </si>
 </sst>
 </file>
@@ -96,7 +117,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00000000;[RED]\-#,##0.00000000"/>
     <numFmt numFmtId="167" formatCode="0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -143,6 +164,18 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -240,7 +273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,6 +363,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -516,9 +569,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
@@ -592,7 +645,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,8 +658,11 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
-    </row>
-    <row r="6" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,6 +675,9 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9"/>
@@ -1202,24 +1261,215 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="B3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.53"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
-        <v>12132323</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="1" s="27" customFormat="true" ht="18.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>20</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2" s="27" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" s="27" t="n">
+        <f aca="false">B2</f>
+        <v>100</v>
+      </c>
+      <c r="D2" s="27" t="n">
+        <f aca="false">C2*1.05</f>
+        <v>105</v>
+      </c>
+      <c r="E2" s="27" t="n">
+        <f aca="false">A2/B2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="27" t="n">
+        <f aca="false">E2</f>
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="27" t="n">
+        <f aca="false">F2*D2</f>
+        <v>52.5</v>
+      </c>
+      <c r="H2" s="27" t="n">
+        <f aca="false">G2-A2</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27" t="n">
+        <f aca="false">A2</f>
+        <v>50</v>
+      </c>
+      <c r="B3" s="27" t="n">
+        <f aca="false">B2*0.95</f>
+        <v>95</v>
+      </c>
+      <c r="C3" s="27" t="n">
+        <f aca="false">(B2+B3)/2</f>
+        <v>97.5</v>
+      </c>
+      <c r="D3" s="27" t="n">
+        <f aca="false">C3*1.05</f>
+        <v>102.375</v>
+      </c>
+      <c r="E3" s="27" t="n">
+        <f aca="false">A3/B3</f>
+        <v>0.526315789473684</v>
+      </c>
+      <c r="F3" s="27" t="n">
+        <f aca="false">E3+E2</f>
+        <v>1.02631578947368</v>
+      </c>
+      <c r="G3" s="27" t="n">
+        <f aca="false">F3*D3</f>
+        <v>105.069078947368</v>
+      </c>
+      <c r="H3" s="27" t="n">
+        <f aca="false">G3-A2-A3</f>
+        <v>5.06907894736841</v>
+      </c>
+    </row>
+    <row r="4" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27" t="n">
+        <f aca="false">A3*2</f>
+        <v>100</v>
+      </c>
+      <c r="B4" s="27" t="n">
+        <f aca="false">B3*0.95</f>
+        <v>90.25</v>
+      </c>
+      <c r="C4" s="27" t="n">
+        <f aca="false">(B3+B4)/2</f>
+        <v>92.625</v>
+      </c>
+      <c r="D4" s="27" t="n">
+        <f aca="false">C4*1.05</f>
+        <v>97.25625</v>
+      </c>
+      <c r="E4" s="27" t="n">
+        <f aca="false">A4/B4</f>
+        <v>1.10803324099723</v>
+      </c>
+      <c r="F4" s="27" t="n">
+        <f aca="false">F3+E4</f>
+        <v>2.13434903047091</v>
+      </c>
+      <c r="G4" s="27" t="n">
+        <f aca="false">F4*D4</f>
+        <v>207.578782894737</v>
+      </c>
+      <c r="H4" s="27" t="n">
+        <f aca="false">G4-A4-A3-A2</f>
+        <v>7.57878289473686</v>
+      </c>
+    </row>
+    <row r="5" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="n">
+        <f aca="false">A4*2</f>
+        <v>200</v>
+      </c>
+      <c r="B5" s="27" t="n">
+        <f aca="false">B4*0.95</f>
+        <v>85.7375</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <f aca="false">(B4+B5)/2</f>
+        <v>87.99375</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <f aca="false">C5*1.05</f>
+        <v>92.3934375</v>
+      </c>
+      <c r="E5" s="27" t="n">
+        <f aca="false">A5/B5</f>
+        <v>2.33270155999417</v>
+      </c>
+      <c r="F5" s="27" t="n">
+        <f aca="false">F4+E5</f>
+        <v>4.46705059046508</v>
+      </c>
+      <c r="G5" s="27" t="n">
+        <f aca="false">F5*D5</f>
+        <v>412.726159539474</v>
+      </c>
+      <c r="H5" s="27" t="n">
+        <f aca="false">G5-A5-A4-A3-A2</f>
+        <v>12.7261595394737</v>
+      </c>
+    </row>
+    <row r="6" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27" t="n">
+        <f aca="false">A5*2</f>
+        <v>400</v>
+      </c>
+      <c r="B6" s="27" t="n">
+        <f aca="false">B5*0.95</f>
+        <v>81.450625</v>
+      </c>
+      <c r="C6" s="27" t="n">
+        <f aca="false">(B5+B6)/2</f>
+        <v>83.5940625</v>
+      </c>
+      <c r="D6" s="27" t="n">
+        <f aca="false">C6*1.05</f>
+        <v>87.773765625</v>
+      </c>
+      <c r="E6" s="27" t="n">
+        <f aca="false">A6/B6</f>
+        <v>4.9109506526193</v>
+      </c>
+      <c r="F6" s="27" t="n">
+        <f aca="false">F5+E6</f>
+        <v>9.37800124308438</v>
+      </c>
+      <c r="G6" s="27" t="n">
+        <f aca="false">F6*D6</f>
+        <v>823.142483141447</v>
+      </c>
+      <c r="H6" s="27" t="n">
+        <f aca="false">G6-A6-A5-A4-A3-A2</f>
+        <v>23.1424831414473</v>
       </c>
     </row>
   </sheetData>

--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -104,7 +104,7 @@
     <t xml:space="preserve">Прибыль при продажи</t>
   </si>
   <si>
-    <t xml:space="preserve">Прибыль — капитал</t>
+    <t xml:space="preserve">Прибыль — чистая</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -366,24 +366,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1261,24 +1257,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="18.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="22" customFormat="true" ht="18.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
         <v>20</v>
       </c>
@@ -1304,172 +1300,308 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="n">
-        <v>50</v>
-      </c>
-      <c r="B2" s="27" t="n">
+    <row r="2" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="C2" s="27" t="n">
+      <c r="C2" s="22" t="n">
         <f aca="false">B2</f>
         <v>100</v>
       </c>
-      <c r="D2" s="27" t="n">
+      <c r="D2" s="22" t="n">
         <f aca="false">C2*1.05</f>
         <v>105</v>
       </c>
-      <c r="E2" s="27" t="n">
+      <c r="E2" s="22" t="n">
         <f aca="false">A2/B2</f>
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="22" t="n">
         <f aca="false">E2</f>
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="22" t="n">
         <f aca="false">F2*D2</f>
-        <v>52.5</v>
-      </c>
-      <c r="H2" s="27" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H2" s="22" t="n">
         <f aca="false">G2-A2</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="3" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="n">
         <f aca="false">A2</f>
-        <v>50</v>
-      </c>
-      <c r="B3" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="22" t="n">
         <f aca="false">B2*0.95</f>
         <v>95</v>
       </c>
-      <c r="C3" s="27" t="n">
+      <c r="C3" s="22" t="n">
         <f aca="false">(B2+B3)/2</f>
         <v>97.5</v>
       </c>
-      <c r="D3" s="27" t="n">
+      <c r="D3" s="22" t="n">
         <f aca="false">C3*1.05</f>
         <v>102.375</v>
       </c>
-      <c r="E3" s="27" t="n">
+      <c r="E3" s="22" t="n">
         <f aca="false">A3/B3</f>
-        <v>0.526315789473684</v>
-      </c>
-      <c r="F3" s="27" t="n">
-        <f aca="false">E3+E2</f>
-        <v>1.02631578947368</v>
-      </c>
-      <c r="G3" s="27" t="n">
+        <v>0.0526315789473684</v>
+      </c>
+      <c r="F3" s="22" t="n">
+        <f aca="false">E3+F2</f>
+        <v>0.102631578947368</v>
+      </c>
+      <c r="G3" s="22" t="n">
         <f aca="false">F3*D3</f>
-        <v>105.069078947368</v>
-      </c>
-      <c r="H3" s="27" t="n">
+        <v>10.5069078947368</v>
+      </c>
+      <c r="H3" s="22" t="n">
         <f aca="false">G3-A2-A3</f>
-        <v>5.06907894736841</v>
-      </c>
-    </row>
-    <row r="4" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="n">
+        <v>0.506907894736843</v>
+      </c>
+    </row>
+    <row r="4" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="n">
         <f aca="false">A3*2</f>
-        <v>100</v>
-      </c>
-      <c r="B4" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" s="22" t="n">
         <f aca="false">B3*0.95</f>
         <v>90.25</v>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="22" t="n">
         <f aca="false">(B3+B4)/2</f>
         <v>92.625</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="22" t="n">
         <f aca="false">C4*1.05</f>
         <v>97.25625</v>
       </c>
-      <c r="E4" s="27" t="n">
+      <c r="E4" s="22" t="n">
         <f aca="false">A4/B4</f>
-        <v>1.10803324099723</v>
-      </c>
-      <c r="F4" s="27" t="n">
+        <v>0.110803324099723</v>
+      </c>
+      <c r="F4" s="22" t="n">
         <f aca="false">F3+E4</f>
-        <v>2.13434903047091</v>
-      </c>
-      <c r="G4" s="27" t="n">
+        <v>0.213434903047091</v>
+      </c>
+      <c r="G4" s="22" t="n">
         <f aca="false">F4*D4</f>
-        <v>207.578782894737</v>
-      </c>
-      <c r="H4" s="27" t="n">
+        <v>20.7578782894737</v>
+      </c>
+      <c r="H4" s="22" t="n">
         <f aca="false">G4-A4-A3-A2</f>
-        <v>7.57878289473686</v>
-      </c>
-    </row>
-    <row r="5" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="n">
+        <v>0.757878289473684</v>
+      </c>
+    </row>
+    <row r="5" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="n">
         <f aca="false">A4*2</f>
-        <v>200</v>
-      </c>
-      <c r="B5" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" s="22" t="n">
         <f aca="false">B4*0.95</f>
         <v>85.7375</v>
       </c>
-      <c r="C5" s="27" t="n">
+      <c r="C5" s="22" t="n">
         <f aca="false">(B4+B5)/2</f>
         <v>87.99375</v>
       </c>
-      <c r="D5" s="27" t="n">
+      <c r="D5" s="22" t="n">
         <f aca="false">C5*1.05</f>
         <v>92.3934375</v>
       </c>
-      <c r="E5" s="27" t="n">
+      <c r="E5" s="22" t="n">
         <f aca="false">A5/B5</f>
-        <v>2.33270155999417</v>
-      </c>
-      <c r="F5" s="27" t="n">
+        <v>0.233270155999417</v>
+      </c>
+      <c r="F5" s="22" t="n">
         <f aca="false">F4+E5</f>
-        <v>4.46705059046508</v>
-      </c>
-      <c r="G5" s="27" t="n">
+        <v>0.446705059046508</v>
+      </c>
+      <c r="G5" s="22" t="n">
         <f aca="false">F5*D5</f>
-        <v>412.726159539474</v>
-      </c>
-      <c r="H5" s="27" t="n">
+        <v>41.2726159539474</v>
+      </c>
+      <c r="H5" s="22" t="n">
         <f aca="false">G5-A5-A4-A3-A2</f>
-        <v>12.7261595394737</v>
-      </c>
-    </row>
-    <row r="6" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="n">
+        <v>1.27261595394737</v>
+      </c>
+    </row>
+    <row r="6" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="22" t="n">
         <f aca="false">A5*2</f>
-        <v>400</v>
-      </c>
-      <c r="B6" s="27" t="n">
+        <v>40</v>
+      </c>
+      <c r="B6" s="22" t="n">
         <f aca="false">B5*0.95</f>
         <v>81.450625</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="22" t="n">
         <f aca="false">(B5+B6)/2</f>
         <v>83.5940625</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="22" t="n">
         <f aca="false">C6*1.05</f>
         <v>87.773765625</v>
       </c>
-      <c r="E6" s="27" t="n">
+      <c r="E6" s="22" t="n">
         <f aca="false">A6/B6</f>
-        <v>4.9109506526193</v>
-      </c>
-      <c r="F6" s="27" t="n">
+        <v>0.49109506526193</v>
+      </c>
+      <c r="F6" s="22" t="n">
         <f aca="false">F5+E6</f>
-        <v>9.37800124308438</v>
-      </c>
-      <c r="G6" s="27" t="n">
+        <v>0.937800124308439</v>
+      </c>
+      <c r="G6" s="22" t="n">
         <f aca="false">F6*D6</f>
-        <v>823.142483141447</v>
-      </c>
-      <c r="H6" s="27" t="n">
+        <v>82.3142483141448</v>
+      </c>
+      <c r="H6" s="22" t="n">
         <f aca="false">G6-A6-A5-A4-A3-A2</f>
-        <v>23.1424831414473</v>
+        <v>2.31424831414475</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22" t="n">
+        <f aca="false">A6*2</f>
+        <v>80</v>
+      </c>
+      <c r="B7" s="22" t="n">
+        <f aca="false">B6*0.95</f>
+        <v>77.37809375</v>
+      </c>
+      <c r="C7" s="22" t="n">
+        <f aca="false">(B6+B7)/2</f>
+        <v>79.414359375</v>
+      </c>
+      <c r="D7" s="22" t="n">
+        <f aca="false">C7*1.05</f>
+        <v>83.38507734375</v>
+      </c>
+      <c r="E7" s="22" t="n">
+        <f aca="false">A7/B7</f>
+        <v>1.03388434791985</v>
+      </c>
+      <c r="F7" s="22" t="n">
+        <f aca="false">F6+E7</f>
+        <v>1.97168447222829</v>
+      </c>
+      <c r="G7" s="22" t="n">
+        <f aca="false">F7*D7</f>
+        <v>164.409062214227</v>
+      </c>
+      <c r="H7" s="22" t="n">
+        <f aca="false">G7-A7-A6-A5-A4-A3-A2</f>
+        <v>4.40906221422702</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="n">
+        <f aca="false">A7*2</f>
+        <v>160</v>
+      </c>
+      <c r="B8" s="22" t="n">
+        <f aca="false">B7*0.95</f>
+        <v>73.5091890625</v>
+      </c>
+      <c r="C8" s="22" t="n">
+        <f aca="false">(B7+B8)/2</f>
+        <v>75.44364140625</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <f aca="false">C8*1.05</f>
+        <v>79.2158234765625</v>
+      </c>
+      <c r="E8" s="22" t="n">
+        <f aca="false">A8/B8</f>
+        <v>2.17659862719969</v>
+      </c>
+      <c r="F8" s="22" t="n">
+        <f aca="false">F7+E8</f>
+        <v>4.14828309942798</v>
+      </c>
+      <c r="G8" s="22" t="n">
+        <f aca="false">F8*D8</f>
+        <v>328.609661735095</v>
+      </c>
+      <c r="H8" s="22" t="n">
+        <f aca="false">G8-A8-A7-A6-A5-A4-A3-A2</f>
+        <v>8.60966173509462</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="n">
+        <f aca="false">A8*2</f>
+        <v>320</v>
+      </c>
+      <c r="B9" s="22" t="n">
+        <f aca="false">B8*0.95</f>
+        <v>69.833729609375</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <f aca="false">(B8+B9)/2</f>
+        <v>71.6714593359375</v>
+      </c>
+      <c r="D9" s="22" t="n">
+        <f aca="false">C9*1.05</f>
+        <v>75.2550323027344</v>
+      </c>
+      <c r="E9" s="22" t="n">
+        <f aca="false">A9/B9</f>
+        <v>4.58231289936777</v>
+      </c>
+      <c r="F9" s="22" t="n">
+        <f aca="false">F8+E9</f>
+        <v>8.73059599879575</v>
+      </c>
+      <c r="G9" s="22" t="n">
+        <f aca="false">F9*D9</f>
+        <v>657.021283911498</v>
+      </c>
+      <c r="H9" s="22" t="n">
+        <f aca="false">G9-A9-A8-A7-A6-A5-A4-A3--A2</f>
+        <v>27.0212839114978</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="n">
+        <f aca="false">A9*2</f>
+        <v>640</v>
+      </c>
+      <c r="B10" s="22" t="n">
+        <f aca="false">B9*0.95</f>
+        <v>66.3420431289062</v>
+      </c>
+      <c r="C10" s="22" t="n">
+        <f aca="false">(B9+B10)/2</f>
+        <v>68.0878863691406</v>
+      </c>
+      <c r="D10" s="22" t="n">
+        <f aca="false">C10*1.05</f>
+        <v>71.4922806875976</v>
+      </c>
+      <c r="E10" s="22" t="n">
+        <f aca="false">A10/B10</f>
+        <v>9.64697452498478</v>
+      </c>
+      <c r="F10" s="22" t="n">
+        <f aca="false">F9+E10</f>
+        <v>18.3775705237805</v>
+      </c>
+      <c r="G10" s="22" t="n">
+        <f aca="false">F10*D10</f>
+        <v>1313.85443024224</v>
+      </c>
+      <c r="H10" s="22" t="n">
+        <f aca="false">G10-A10-A9-A8-A7-A6-A5-A4-A3-A2</f>
+        <v>33.8544302422388</v>
       </c>
     </row>
   </sheetData>

--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t xml:space="preserve">USDT</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t xml:space="preserve">Всего монет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прибыль при продажи</t>
   </si>
   <si>
     <t xml:space="preserve">Прибыль — чистая</t>
@@ -111,11 +108,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0;[RED]\-#,##0"/>
     <numFmt numFmtId="166" formatCode="#,##0.00000000;[RED]\-#,##0.00000000"/>
     <numFmt numFmtId="167" formatCode="0%"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -273,7 +271,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,6 +378,18 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1257,10 +1267,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1293,12 +1303,13 @@
       <c r="F1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="n">
@@ -1316,20 +1327,20 @@
         <v>105</v>
       </c>
       <c r="E2" s="22" t="n">
-        <f aca="false">A2/B2</f>
-        <v>0.05</v>
+        <f aca="false">A2/B2*0.999</f>
+        <v>0.04995</v>
       </c>
       <c r="F2" s="22" t="n">
         <f aca="false">E2</f>
-        <v>0.05</v>
+        <v>0.04995</v>
       </c>
       <c r="G2" s="22" t="n">
-        <f aca="false">F2*D2</f>
-        <v>5.25</v>
-      </c>
-      <c r="H2" s="22" t="n">
+        <f aca="false">F2*D2*0.999</f>
+        <v>5.23950525</v>
+      </c>
+      <c r="H2" s="29" t="n">
         <f aca="false">G2-A2</f>
-        <v>0.25</v>
+        <v>0.23950525</v>
       </c>
     </row>
     <row r="3" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1350,20 +1361,20 @@
         <v>102.375</v>
       </c>
       <c r="E3" s="22" t="n">
-        <f aca="false">A3/B3</f>
-        <v>0.0526315789473684</v>
+        <f aca="false">A3/B3*0.999</f>
+        <v>0.0525789473684211</v>
       </c>
       <c r="F3" s="22" t="n">
         <f aca="false">E3+F2</f>
-        <v>0.102631578947368</v>
+        <v>0.102528947368421</v>
       </c>
       <c r="G3" s="22" t="n">
-        <f aca="false">F3*D3</f>
-        <v>10.5069078947368</v>
-      </c>
-      <c r="H3" s="22" t="n">
+        <f aca="false">F3*D3*0.999</f>
+        <v>10.4859045858553</v>
+      </c>
+      <c r="H3" s="29" t="n">
         <f aca="false">G3-A2-A3</f>
-        <v>0.506907894736843</v>
+        <v>0.485904585855263</v>
       </c>
     </row>
     <row r="4" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1384,20 +1395,20 @@
         <v>97.25625</v>
       </c>
       <c r="E4" s="22" t="n">
-        <f aca="false">A4/B4</f>
-        <v>0.110803324099723</v>
+        <f aca="false">A4/B4*0.999</f>
+        <v>0.110692520775623</v>
       </c>
       <c r="F4" s="22" t="n">
         <f aca="false">F3+E4</f>
-        <v>0.213434903047091</v>
+        <v>0.213221468144044</v>
       </c>
       <c r="G4" s="22" t="n">
-        <f aca="false">F4*D4</f>
-        <v>20.7578782894737</v>
-      </c>
-      <c r="H4" s="22" t="n">
+        <f aca="false">F4*D4*0.999</f>
+        <v>20.716383290773</v>
+      </c>
+      <c r="H4" s="29" t="n">
         <f aca="false">G4-A4-A3-A2</f>
-        <v>0.757878289473684</v>
+        <v>0.716383290773024</v>
       </c>
     </row>
     <row r="5" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1418,20 +1429,20 @@
         <v>92.3934375</v>
       </c>
       <c r="E5" s="22" t="n">
-        <f aca="false">A5/B5</f>
-        <v>0.233270155999417</v>
+        <f aca="false">A5/B5*0.999</f>
+        <v>0.233036885843417</v>
       </c>
       <c r="F5" s="22" t="n">
         <f aca="false">F4+E5</f>
-        <v>0.446705059046508</v>
+        <v>0.446258353987462</v>
       </c>
       <c r="G5" s="22" t="n">
-        <f aca="false">F5*D5</f>
-        <v>41.2726159539474</v>
-      </c>
-      <c r="H5" s="22" t="n">
+        <f aca="false">F5*D5*0.999</f>
+        <v>41.1901119946554</v>
+      </c>
+      <c r="H5" s="29" t="n">
         <f aca="false">G5-A5-A4-A3-A2</f>
-        <v>1.27261595394737</v>
+        <v>1.19011199465543</v>
       </c>
     </row>
     <row r="6" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1452,20 +1463,20 @@
         <v>87.773765625</v>
       </c>
       <c r="E6" s="22" t="n">
-        <f aca="false">A6/B6</f>
-        <v>0.49109506526193</v>
+        <f aca="false">A6/B6*0.999</f>
+        <v>0.490603970196668</v>
       </c>
       <c r="F6" s="22" t="n">
         <f aca="false">F5+E6</f>
-        <v>0.937800124308439</v>
+        <v>0.93686232418413</v>
       </c>
       <c r="G6" s="22" t="n">
-        <f aca="false">F6*D6</f>
-        <v>82.3142483141448</v>
-      </c>
-      <c r="H6" s="22" t="n">
+        <f aca="false">F6*D6*0.999</f>
+        <v>82.1497021317648</v>
+      </c>
+      <c r="H6" s="29" t="n">
         <f aca="false">G6-A6-A5-A4-A3-A2</f>
-        <v>2.31424831414475</v>
+        <v>2.14970213176476</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1486,21 +1497,22 @@
         <v>83.38507734375</v>
       </c>
       <c r="E7" s="22" t="n">
-        <f aca="false">A7/B7</f>
-        <v>1.03388434791985</v>
+        <f aca="false">A7/B7*0.999</f>
+        <v>1.03285046357193</v>
       </c>
       <c r="F7" s="22" t="n">
         <f aca="false">F6+E7</f>
-        <v>1.97168447222829</v>
+        <v>1.96971278775606</v>
       </c>
       <c r="G7" s="22" t="n">
-        <f aca="false">F7*D7</f>
-        <v>164.409062214227</v>
-      </c>
-      <c r="H7" s="22" t="n">
+        <f aca="false">F7*D7*0.999</f>
+        <v>164.080408498861</v>
+      </c>
+      <c r="H7" s="29" t="n">
         <f aca="false">G7-A7-A6-A5-A4-A3-A2</f>
-        <v>4.40906221422702</v>
-      </c>
+        <v>4.08040849886072</v>
+      </c>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="n">
@@ -1520,21 +1532,22 @@
         <v>79.2158234765625</v>
       </c>
       <c r="E8" s="22" t="n">
-        <f aca="false">A8/B8</f>
-        <v>2.17659862719969</v>
+        <f aca="false">A8/B8*0.999</f>
+        <v>2.17442202857249</v>
       </c>
       <c r="F8" s="22" t="n">
         <f aca="false">F7+E8</f>
-        <v>4.14828309942798</v>
+        <v>4.14413481632855</v>
       </c>
       <c r="G8" s="22" t="n">
-        <f aca="false">F8*D8</f>
-        <v>328.609661735095</v>
-      </c>
-      <c r="H8" s="22" t="n">
+        <f aca="false">F8*D8*0.999</f>
+        <v>327.952771021286</v>
+      </c>
+      <c r="H8" s="29" t="n">
         <f aca="false">G8-A8-A7-A6-A5-A4-A3-A2</f>
-        <v>8.60966173509462</v>
-      </c>
+        <v>7.9527710212862</v>
+      </c>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="n">
@@ -1554,21 +1567,22 @@
         <v>75.2550323027344</v>
       </c>
       <c r="E9" s="22" t="n">
-        <f aca="false">A9/B9</f>
-        <v>4.58231289936777</v>
+        <f aca="false">A9/B9*0.999</f>
+        <v>4.5777305864684</v>
       </c>
       <c r="F9" s="22" t="n">
         <f aca="false">F8+E9</f>
-        <v>8.73059599879575</v>
+        <v>8.72186540279696</v>
       </c>
       <c r="G9" s="22" t="n">
-        <f aca="false">F9*D9</f>
-        <v>657.021283911498</v>
-      </c>
-      <c r="H9" s="22" t="n">
+        <f aca="false">F9*D9*0.999</f>
+        <v>655.707898364959</v>
+      </c>
+      <c r="H9" s="29" t="n">
         <f aca="false">G9-A9-A8-A7-A6-A5-A4-A3--A2</f>
-        <v>27.0212839114978</v>
-      </c>
+        <v>25.707898364959</v>
+      </c>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="n">
@@ -1588,21 +1602,22 @@
         <v>71.4922806875976</v>
       </c>
       <c r="E10" s="22" t="n">
-        <f aca="false">A10/B10</f>
-        <v>9.64697452498478</v>
+        <f aca="false">A10/B10*0.999</f>
+        <v>9.6373275504598</v>
       </c>
       <c r="F10" s="22" t="n">
         <f aca="false">F9+E10</f>
-        <v>18.3775705237805</v>
+        <v>18.3591929532568</v>
       </c>
       <c r="G10" s="22" t="n">
-        <f aca="false">F10*D10</f>
-        <v>1313.85443024224</v>
-      </c>
-      <c r="H10" s="22" t="n">
+        <f aca="false">F10*D10*0.999</f>
+        <v>1311.22803523618</v>
+      </c>
+      <c r="H10" s="29" t="n">
         <f aca="false">G10-A10-A9-A8-A7-A6-A5-A4-A3-A2</f>
-        <v>33.8544302422388</v>
-      </c>
+        <v>31.228035236184</v>
+      </c>
+      <c r="I10" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -1269,8 +1269,8 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="2" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="B2" s="22" t="n">
         <v>100</v>
@@ -1328,25 +1328,25 @@
       </c>
       <c r="E2" s="22" t="n">
         <f aca="false">A2/B2*0.999</f>
-        <v>0.04995</v>
+        <v>0.054945</v>
       </c>
       <c r="F2" s="22" t="n">
         <f aca="false">E2</f>
-        <v>0.04995</v>
+        <v>0.054945</v>
       </c>
       <c r="G2" s="22" t="n">
         <f aca="false">F2*D2*0.999</f>
-        <v>5.23950525</v>
+        <v>5.763455775</v>
       </c>
       <c r="H2" s="29" t="n">
         <f aca="false">G2-A2</f>
-        <v>0.23950525</v>
+        <v>0.263455775000001</v>
       </c>
     </row>
     <row r="3" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="n">
         <f aca="false">A2</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="B3" s="22" t="n">
         <f aca="false">B2*0.95</f>
@@ -1362,25 +1362,25 @@
       </c>
       <c r="E3" s="22" t="n">
         <f aca="false">A3/B3*0.999</f>
-        <v>0.0525789473684211</v>
+        <v>0.0578368421052632</v>
       </c>
       <c r="F3" s="22" t="n">
         <f aca="false">E3+F2</f>
-        <v>0.102528947368421</v>
+        <v>0.112781842105263</v>
       </c>
       <c r="G3" s="22" t="n">
         <f aca="false">F3*D3*0.999</f>
-        <v>10.4859045858553</v>
+        <v>11.5344950444408</v>
       </c>
       <c r="H3" s="29" t="n">
         <f aca="false">G3-A2-A3</f>
-        <v>0.485904585855263</v>
+        <v>0.534495044440789</v>
       </c>
     </row>
     <row r="4" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="n">
         <f aca="false">A3*2</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="22" t="n">
         <f aca="false">B3*0.95</f>
@@ -1396,25 +1396,25 @@
       </c>
       <c r="E4" s="22" t="n">
         <f aca="false">A4/B4*0.999</f>
-        <v>0.110692520775623</v>
+        <v>0.121761772853186</v>
       </c>
       <c r="F4" s="22" t="n">
         <f aca="false">F3+E4</f>
-        <v>0.213221468144044</v>
+        <v>0.234543614958449</v>
       </c>
       <c r="G4" s="22" t="n">
         <f aca="false">F4*D4*0.999</f>
-        <v>20.716383290773</v>
+        <v>22.7880216198503</v>
       </c>
       <c r="H4" s="29" t="n">
         <f aca="false">G4-A4-A3-A2</f>
-        <v>0.716383290773024</v>
+        <v>0.788021619850326</v>
       </c>
     </row>
     <row r="5" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="n">
         <f aca="false">A4*2</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="22" t="n">
         <f aca="false">B4*0.95</f>
@@ -1430,25 +1430,25 @@
       </c>
       <c r="E5" s="22" t="n">
         <f aca="false">A5/B5*0.999</f>
-        <v>0.233036885843417</v>
+        <v>0.256340574427759</v>
       </c>
       <c r="F5" s="22" t="n">
         <f aca="false">F4+E5</f>
-        <v>0.446258353987462</v>
+        <v>0.490884189386208</v>
       </c>
       <c r="G5" s="22" t="n">
         <f aca="false">F5*D5*0.999</f>
-        <v>41.1901119946554</v>
+        <v>45.309123194121</v>
       </c>
       <c r="H5" s="29" t="n">
         <f aca="false">G5-A5-A4-A3-A2</f>
-        <v>1.19011199465543</v>
+        <v>1.30912319412097</v>
       </c>
     </row>
     <row r="6" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="n">
         <f aca="false">A5*2</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B6" s="22" t="n">
         <f aca="false">B5*0.95</f>
@@ -1464,25 +1464,25 @@
       </c>
       <c r="E6" s="22" t="n">
         <f aca="false">A6/B6*0.999</f>
-        <v>0.490603970196668</v>
+        <v>0.539664367216335</v>
       </c>
       <c r="F6" s="22" t="n">
         <f aca="false">F5+E6</f>
-        <v>0.93686232418413</v>
+        <v>1.03054855660254</v>
       </c>
       <c r="G6" s="22" t="n">
         <f aca="false">F6*D6*0.999</f>
-        <v>82.1497021317648</v>
+        <v>90.3646723449412</v>
       </c>
       <c r="H6" s="29" t="n">
         <f aca="false">G6-A6-A5-A4-A3-A2</f>
-        <v>2.14970213176476</v>
+        <v>2.36467234494124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="n">
         <f aca="false">A6*2</f>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B7" s="22" t="n">
         <f aca="false">B6*0.95</f>
@@ -1498,26 +1498,26 @@
       </c>
       <c r="E7" s="22" t="n">
         <f aca="false">A7/B7*0.999</f>
-        <v>1.03285046357193</v>
+        <v>1.13613550992913</v>
       </c>
       <c r="F7" s="22" t="n">
         <f aca="false">F6+E7</f>
-        <v>1.96971278775606</v>
+        <v>2.16668406653167</v>
       </c>
       <c r="G7" s="22" t="n">
         <f aca="false">F7*D7*0.999</f>
-        <v>164.080408498861</v>
+        <v>180.488449348747</v>
       </c>
       <c r="H7" s="29" t="n">
         <f aca="false">G7-A7-A6-A5-A4-A3-A2</f>
-        <v>4.08040849886072</v>
+        <v>4.48844934874677</v>
       </c>
       <c r="I7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="n">
         <f aca="false">A7*2</f>
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B8" s="22" t="n">
         <f aca="false">B7*0.95</f>
@@ -1533,26 +1533,26 @@
       </c>
       <c r="E8" s="22" t="n">
         <f aca="false">A8/B8*0.999</f>
-        <v>2.17442202857249</v>
+        <v>2.39186423142974</v>
       </c>
       <c r="F8" s="22" t="n">
         <f aca="false">F7+E8</f>
-        <v>4.14413481632855</v>
+        <v>4.55854829796141</v>
       </c>
       <c r="G8" s="22" t="n">
         <f aca="false">F8*D8*0.999</f>
-        <v>327.952771021286</v>
+        <v>360.748048123415</v>
       </c>
       <c r="H8" s="29" t="n">
         <f aca="false">G8-A8-A7-A6-A5-A4-A3-A2</f>
-        <v>7.9527710212862</v>
+        <v>8.74804812341478</v>
       </c>
       <c r="I8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="n">
         <f aca="false">A8*2</f>
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="B9" s="22" t="n">
         <f aca="false">B8*0.95</f>
@@ -1568,26 +1568,26 @@
       </c>
       <c r="E9" s="22" t="n">
         <f aca="false">A9/B9*0.999</f>
-        <v>4.5777305864684</v>
+        <v>5.03550364511524</v>
       </c>
       <c r="F9" s="22" t="n">
         <f aca="false">F8+E9</f>
-        <v>8.72186540279696</v>
+        <v>9.59405194307665</v>
       </c>
       <c r="G9" s="22" t="n">
         <f aca="false">F9*D9*0.999</f>
-        <v>655.707898364959</v>
+        <v>721.278688201455</v>
       </c>
       <c r="H9" s="29" t="n">
         <f aca="false">G9-A9-A8-A7-A6-A5-A4-A3--A2</f>
-        <v>25.707898364959</v>
+        <v>28.2786882014549</v>
       </c>
       <c r="I9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="n">
         <f aca="false">A9*2</f>
-        <v>640</v>
+        <v>704</v>
       </c>
       <c r="B10" s="22" t="n">
         <f aca="false">B9*0.95</f>
@@ -1603,19 +1603,19 @@
       </c>
       <c r="E10" s="22" t="n">
         <f aca="false">A10/B10*0.999</f>
-        <v>9.6373275504598</v>
+        <v>10.6010603055058</v>
       </c>
       <c r="F10" s="22" t="n">
         <f aca="false">F9+E10</f>
-        <v>18.3591929532568</v>
+        <v>20.1951122485824</v>
       </c>
       <c r="G10" s="22" t="n">
         <f aca="false">F10*D10*0.999</f>
-        <v>1311.22803523618</v>
+        <v>1442.3508387598</v>
       </c>
       <c r="H10" s="29" t="n">
         <f aca="false">G10-A10-A9-A8-A7-A6-A5-A4-A3-A2</f>
-        <v>31.228035236184</v>
+        <v>34.3508387598024</v>
       </c>
       <c r="I10" s="22"/>
     </row>

--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -1270,7 +1270,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="2" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="n">
-        <v>5.5</v>
+        <v>5.05</v>
       </c>
       <c r="B2" s="22" t="n">
         <v>100</v>
@@ -1328,25 +1328,25 @@
       </c>
       <c r="E2" s="22" t="n">
         <f aca="false">A2/B2*0.999</f>
-        <v>0.054945</v>
+        <v>0.0504495</v>
       </c>
       <c r="F2" s="22" t="n">
         <f aca="false">E2</f>
-        <v>0.054945</v>
+        <v>0.0504495</v>
       </c>
       <c r="G2" s="22" t="n">
         <f aca="false">F2*D2*0.999</f>
-        <v>5.763455775</v>
+        <v>5.2919003025</v>
       </c>
       <c r="H2" s="29" t="n">
         <f aca="false">G2-A2</f>
-        <v>0.263455775000001</v>
+        <v>0.2419003025</v>
       </c>
     </row>
     <row r="3" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="n">
         <f aca="false">A2</f>
-        <v>5.5</v>
+        <v>5.05</v>
       </c>
       <c r="B3" s="22" t="n">
         <f aca="false">B2*0.95</f>
@@ -1362,25 +1362,25 @@
       </c>
       <c r="E3" s="22" t="n">
         <f aca="false">A3/B3*0.999</f>
-        <v>0.0578368421052632</v>
+        <v>0.0531047368421053</v>
       </c>
       <c r="F3" s="22" t="n">
         <f aca="false">E3+F2</f>
-        <v>0.112781842105263</v>
+        <v>0.103554236842105</v>
       </c>
       <c r="G3" s="22" t="n">
         <f aca="false">F3*D3*0.999</f>
-        <v>11.5344950444408</v>
+        <v>10.5907636317138</v>
       </c>
       <c r="H3" s="29" t="n">
         <f aca="false">G3-A2-A3</f>
-        <v>0.534495044440789</v>
+        <v>0.490763631713815</v>
       </c>
     </row>
     <row r="4" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="n">
         <f aca="false">A3*2</f>
-        <v>11</v>
+        <v>10.1</v>
       </c>
       <c r="B4" s="22" t="n">
         <f aca="false">B3*0.95</f>
@@ -1396,25 +1396,25 @@
       </c>
       <c r="E4" s="22" t="n">
         <f aca="false">A4/B4*0.999</f>
-        <v>0.121761772853186</v>
+        <v>0.11179944598338</v>
       </c>
       <c r="F4" s="22" t="n">
         <f aca="false">F3+E4</f>
-        <v>0.234543614958449</v>
+        <v>0.215353682825485</v>
       </c>
       <c r="G4" s="22" t="n">
         <f aca="false">F4*D4*0.999</f>
-        <v>22.7880216198503</v>
+        <v>20.9235471236808</v>
       </c>
       <c r="H4" s="29" t="n">
         <f aca="false">G4-A4-A3-A2</f>
-        <v>0.788021619850326</v>
+        <v>0.723547123680756</v>
       </c>
     </row>
     <row r="5" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="n">
         <f aca="false">A4*2</f>
-        <v>22</v>
+        <v>20.2</v>
       </c>
       <c r="B5" s="22" t="n">
         <f aca="false">B4*0.95</f>
@@ -1430,25 +1430,25 @@
       </c>
       <c r="E5" s="22" t="n">
         <f aca="false">A5/B5*0.999</f>
-        <v>0.256340574427759</v>
+        <v>0.235367254701852</v>
       </c>
       <c r="F5" s="22" t="n">
         <f aca="false">F4+E5</f>
-        <v>0.490884189386208</v>
+        <v>0.450720937527336</v>
       </c>
       <c r="G5" s="22" t="n">
         <f aca="false">F5*D5*0.999</f>
-        <v>45.309123194121</v>
+        <v>41.602013114602</v>
       </c>
       <c r="H5" s="29" t="n">
         <f aca="false">G5-A5-A4-A3-A2</f>
-        <v>1.30912319412097</v>
+        <v>1.20201311460199</v>
       </c>
     </row>
     <row r="6" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="n">
         <f aca="false">A5*2</f>
-        <v>44</v>
+        <v>40.4</v>
       </c>
       <c r="B6" s="22" t="n">
         <f aca="false">B5*0.95</f>
@@ -1464,25 +1464,25 @@
       </c>
       <c r="E6" s="22" t="n">
         <f aca="false">A6/B6*0.999</f>
-        <v>0.539664367216335</v>
+        <v>0.495510009898635</v>
       </c>
       <c r="F6" s="22" t="n">
         <f aca="false">F5+E6</f>
-        <v>1.03054855660254</v>
+        <v>0.946230947425971</v>
       </c>
       <c r="G6" s="22" t="n">
         <f aca="false">F6*D6*0.999</f>
-        <v>90.3646723449412</v>
+        <v>82.9711991530824</v>
       </c>
       <c r="H6" s="29" t="n">
         <f aca="false">G6-A6-A5-A4-A3-A2</f>
-        <v>2.36467234494124</v>
+        <v>2.1711991530824</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="n">
         <f aca="false">A6*2</f>
-        <v>88</v>
+        <v>80.8</v>
       </c>
       <c r="B7" s="22" t="n">
         <f aca="false">B6*0.95</f>
@@ -1498,26 +1498,26 @@
       </c>
       <c r="E7" s="22" t="n">
         <f aca="false">A7/B7*0.999</f>
-        <v>1.13613550992913</v>
+        <v>1.04317896820765</v>
       </c>
       <c r="F7" s="22" t="n">
         <f aca="false">F6+E7</f>
-        <v>2.16668406653167</v>
+        <v>1.98940991563362</v>
       </c>
       <c r="G7" s="22" t="n">
         <f aca="false">F7*D7*0.999</f>
-        <v>180.488449348747</v>
+        <v>165.721212583849</v>
       </c>
       <c r="H7" s="29" t="n">
         <f aca="false">G7-A7-A6-A5-A4-A3-A2</f>
-        <v>4.48844934874677</v>
+        <v>4.12121258384931</v>
       </c>
       <c r="I7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="n">
         <f aca="false">A7*2</f>
-        <v>176</v>
+        <v>161.6</v>
       </c>
       <c r="B8" s="22" t="n">
         <f aca="false">B7*0.95</f>
@@ -1533,26 +1533,26 @@
       </c>
       <c r="E8" s="22" t="n">
         <f aca="false">A8/B8*0.999</f>
-        <v>2.39186423142974</v>
+        <v>2.19616624885822</v>
       </c>
       <c r="F8" s="22" t="n">
         <f aca="false">F7+E8</f>
-        <v>4.55854829796141</v>
+        <v>4.18557616449184</v>
       </c>
       <c r="G8" s="22" t="n">
         <f aca="false">F8*D8*0.999</f>
-        <v>360.748048123415</v>
+        <v>331.232298731499</v>
       </c>
       <c r="H8" s="29" t="n">
         <f aca="false">G8-A8-A7-A6-A5-A4-A3-A2</f>
-        <v>8.74804812341478</v>
+        <v>8.032298731499</v>
       </c>
       <c r="I8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="n">
         <f aca="false">A8*2</f>
-        <v>352</v>
+        <v>323.2</v>
       </c>
       <c r="B9" s="22" t="n">
         <f aca="false">B8*0.95</f>
@@ -1568,26 +1568,26 @@
       </c>
       <c r="E9" s="22" t="n">
         <f aca="false">A9/B9*0.999</f>
-        <v>5.03550364511524</v>
+        <v>4.62350789233309</v>
       </c>
       <c r="F9" s="22" t="n">
         <f aca="false">F8+E9</f>
-        <v>9.59405194307665</v>
+        <v>8.80908405682493</v>
       </c>
       <c r="G9" s="22" t="n">
         <f aca="false">F9*D9*0.999</f>
-        <v>721.278688201455</v>
+        <v>662.264977348609</v>
       </c>
       <c r="H9" s="29" t="n">
         <f aca="false">G9-A9-A8-A7-A6-A5-A4-A3--A2</f>
-        <v>28.2786882014549</v>
+        <v>25.9649773486086</v>
       </c>
       <c r="I9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="n">
         <f aca="false">A9*2</f>
-        <v>704</v>
+        <v>646.4</v>
       </c>
       <c r="B10" s="22" t="n">
         <f aca="false">B9*0.95</f>
@@ -1603,19 +1603,19 @@
       </c>
       <c r="E10" s="22" t="n">
         <f aca="false">A10/B10*0.999</f>
-        <v>10.6010603055058</v>
+        <v>9.7337008259644</v>
       </c>
       <c r="F10" s="22" t="n">
         <f aca="false">F9+E10</f>
-        <v>20.1951122485824</v>
+        <v>18.5427848827893</v>
       </c>
       <c r="G10" s="22" t="n">
         <f aca="false">F10*D10*0.999</f>
-        <v>1442.3508387598</v>
+        <v>1324.34031558855</v>
       </c>
       <c r="H10" s="29" t="n">
         <f aca="false">G10-A10-A9-A8-A7-A6-A5-A4-A3-A2</f>
-        <v>34.3508387598024</v>
+        <v>31.5403155885458</v>
       </c>
       <c r="I10" s="22"/>
     </row>

--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -580,7 +580,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B10" activeCellId="1" sqref="B15:I18 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1269,8 +1269,8 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="B15:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="2" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="n">
-        <v>5.05</v>
+        <v>5.5</v>
       </c>
       <c r="B2" s="22" t="n">
         <v>100</v>
@@ -1328,25 +1328,25 @@
       </c>
       <c r="E2" s="22" t="n">
         <f aca="false">A2/B2*0.999</f>
-        <v>0.0504495</v>
+        <v>0.054945</v>
       </c>
       <c r="F2" s="22" t="n">
         <f aca="false">E2</f>
-        <v>0.0504495</v>
+        <v>0.054945</v>
       </c>
       <c r="G2" s="22" t="n">
         <f aca="false">F2*D2*0.999</f>
-        <v>5.2919003025</v>
+        <v>5.763455775</v>
       </c>
       <c r="H2" s="29" t="n">
         <f aca="false">G2-A2</f>
-        <v>0.2419003025</v>
+        <v>0.263455775000001</v>
       </c>
     </row>
     <row r="3" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="n">
         <f aca="false">A2</f>
-        <v>5.05</v>
+        <v>5.5</v>
       </c>
       <c r="B3" s="22" t="n">
         <f aca="false">B2*0.95</f>
@@ -1362,25 +1362,25 @@
       </c>
       <c r="E3" s="22" t="n">
         <f aca="false">A3/B3*0.999</f>
-        <v>0.0531047368421053</v>
+        <v>0.0578368421052632</v>
       </c>
       <c r="F3" s="22" t="n">
         <f aca="false">E3+F2</f>
-        <v>0.103554236842105</v>
+        <v>0.112781842105263</v>
       </c>
       <c r="G3" s="22" t="n">
         <f aca="false">F3*D3*0.999</f>
-        <v>10.5907636317138</v>
+        <v>11.5344950444408</v>
       </c>
       <c r="H3" s="29" t="n">
         <f aca="false">G3-A2-A3</f>
-        <v>0.490763631713815</v>
+        <v>0.534495044440789</v>
       </c>
     </row>
     <row r="4" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="n">
         <f aca="false">A3*2</f>
-        <v>10.1</v>
+        <v>11</v>
       </c>
       <c r="B4" s="22" t="n">
         <f aca="false">B3*0.95</f>
@@ -1396,25 +1396,25 @@
       </c>
       <c r="E4" s="22" t="n">
         <f aca="false">A4/B4*0.999</f>
-        <v>0.11179944598338</v>
+        <v>0.121761772853186</v>
       </c>
       <c r="F4" s="22" t="n">
         <f aca="false">F3+E4</f>
-        <v>0.215353682825485</v>
+        <v>0.234543614958449</v>
       </c>
       <c r="G4" s="22" t="n">
         <f aca="false">F4*D4*0.999</f>
-        <v>20.9235471236808</v>
+        <v>22.7880216198503</v>
       </c>
       <c r="H4" s="29" t="n">
         <f aca="false">G4-A4-A3-A2</f>
-        <v>0.723547123680756</v>
+        <v>0.788021619850326</v>
       </c>
     </row>
     <row r="5" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="n">
         <f aca="false">A4*2</f>
-        <v>20.2</v>
+        <v>22</v>
       </c>
       <c r="B5" s="22" t="n">
         <f aca="false">B4*0.95</f>
@@ -1430,25 +1430,25 @@
       </c>
       <c r="E5" s="22" t="n">
         <f aca="false">A5/B5*0.999</f>
-        <v>0.235367254701852</v>
+        <v>0.256340574427759</v>
       </c>
       <c r="F5" s="22" t="n">
         <f aca="false">F4+E5</f>
-        <v>0.450720937527336</v>
+        <v>0.490884189386208</v>
       </c>
       <c r="G5" s="22" t="n">
         <f aca="false">F5*D5*0.999</f>
-        <v>41.602013114602</v>
+        <v>45.309123194121</v>
       </c>
       <c r="H5" s="29" t="n">
         <f aca="false">G5-A5-A4-A3-A2</f>
-        <v>1.20201311460199</v>
+        <v>1.30912319412097</v>
       </c>
     </row>
     <row r="6" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="n">
         <f aca="false">A5*2</f>
-        <v>40.4</v>
+        <v>44</v>
       </c>
       <c r="B6" s="22" t="n">
         <f aca="false">B5*0.95</f>
@@ -1464,25 +1464,25 @@
       </c>
       <c r="E6" s="22" t="n">
         <f aca="false">A6/B6*0.999</f>
-        <v>0.495510009898635</v>
+        <v>0.539664367216335</v>
       </c>
       <c r="F6" s="22" t="n">
         <f aca="false">F5+E6</f>
-        <v>0.946230947425971</v>
+        <v>1.03054855660254</v>
       </c>
       <c r="G6" s="22" t="n">
         <f aca="false">F6*D6*0.999</f>
-        <v>82.9711991530824</v>
+        <v>90.3646723449412</v>
       </c>
       <c r="H6" s="29" t="n">
         <f aca="false">G6-A6-A5-A4-A3-A2</f>
-        <v>2.1711991530824</v>
+        <v>2.36467234494124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="n">
         <f aca="false">A6*2</f>
-        <v>80.8</v>
+        <v>88</v>
       </c>
       <c r="B7" s="22" t="n">
         <f aca="false">B6*0.95</f>
@@ -1498,26 +1498,26 @@
       </c>
       <c r="E7" s="22" t="n">
         <f aca="false">A7/B7*0.999</f>
-        <v>1.04317896820765</v>
+        <v>1.13613550992913</v>
       </c>
       <c r="F7" s="22" t="n">
         <f aca="false">F6+E7</f>
-        <v>1.98940991563362</v>
+        <v>2.16668406653167</v>
       </c>
       <c r="G7" s="22" t="n">
         <f aca="false">F7*D7*0.999</f>
-        <v>165.721212583849</v>
+        <v>180.488449348747</v>
       </c>
       <c r="H7" s="29" t="n">
         <f aca="false">G7-A7-A6-A5-A4-A3-A2</f>
-        <v>4.12121258384931</v>
+        <v>4.48844934874677</v>
       </c>
       <c r="I7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="n">
         <f aca="false">A7*2</f>
-        <v>161.6</v>
+        <v>176</v>
       </c>
       <c r="B8" s="22" t="n">
         <f aca="false">B7*0.95</f>
@@ -1533,26 +1533,26 @@
       </c>
       <c r="E8" s="22" t="n">
         <f aca="false">A8/B8*0.999</f>
-        <v>2.19616624885822</v>
+        <v>2.39186423142974</v>
       </c>
       <c r="F8" s="22" t="n">
         <f aca="false">F7+E8</f>
-        <v>4.18557616449184</v>
+        <v>4.55854829796141</v>
       </c>
       <c r="G8" s="22" t="n">
         <f aca="false">F8*D8*0.999</f>
-        <v>331.232298731499</v>
+        <v>360.748048123415</v>
       </c>
       <c r="H8" s="29" t="n">
         <f aca="false">G8-A8-A7-A6-A5-A4-A3-A2</f>
-        <v>8.032298731499</v>
+        <v>8.74804812341478</v>
       </c>
       <c r="I8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="n">
         <f aca="false">A8*2</f>
-        <v>323.2</v>
+        <v>352</v>
       </c>
       <c r="B9" s="22" t="n">
         <f aca="false">B8*0.95</f>
@@ -1568,26 +1568,26 @@
       </c>
       <c r="E9" s="22" t="n">
         <f aca="false">A9/B9*0.999</f>
-        <v>4.62350789233309</v>
+        <v>5.03550364511524</v>
       </c>
       <c r="F9" s="22" t="n">
         <f aca="false">F8+E9</f>
-        <v>8.80908405682493</v>
+        <v>9.59405194307665</v>
       </c>
       <c r="G9" s="22" t="n">
         <f aca="false">F9*D9*0.999</f>
-        <v>662.264977348609</v>
+        <v>721.278688201455</v>
       </c>
       <c r="H9" s="29" t="n">
         <f aca="false">G9-A9-A8-A7-A6-A5-A4-A3--A2</f>
-        <v>25.9649773486086</v>
+        <v>28.2786882014549</v>
       </c>
       <c r="I9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="n">
         <f aca="false">A9*2</f>
-        <v>646.4</v>
+        <v>704</v>
       </c>
       <c r="B10" s="22" t="n">
         <f aca="false">B9*0.95</f>
@@ -1603,19 +1603,19 @@
       </c>
       <c r="E10" s="22" t="n">
         <f aca="false">A10/B10*0.999</f>
-        <v>9.7337008259644</v>
+        <v>10.6010603055058</v>
       </c>
       <c r="F10" s="22" t="n">
         <f aca="false">F9+E10</f>
-        <v>18.5427848827893</v>
+        <v>20.1951122485824</v>
       </c>
       <c r="G10" s="22" t="n">
         <f aca="false">F10*D10*0.999</f>
-        <v>1324.34031558855</v>
+        <v>1442.3508387598</v>
       </c>
       <c r="H10" s="29" t="n">
         <f aca="false">G10-A10-A9-A8-A7-A6-A5-A4-A3-A2</f>
-        <v>31.5403155885458</v>
+        <v>34.3508387598024</v>
       </c>
       <c r="I10" s="22"/>
     </row>

--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t xml:space="preserve">USDT</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve">Прибыль — чистая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">итого</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
     <numFmt numFmtId="167" formatCode="0%"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -178,8 +181,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +230,14 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF158466"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -245,6 +259,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -271,7 +292,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -364,23 +385,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -388,7 +409,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -416,7 +453,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF158466"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -577,10 +614,10 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B10" activeCellId="1" sqref="B15:I18 B10"/>
+      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1267,19 +1304,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="B15:I18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.53"/>
   </cols>
@@ -1312,312 +1349,321 @@
       <c r="I1" s="28"/>
     </row>
     <row r="2" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="n">
+      <c r="A2" s="29" t="n">
         <v>5.5</v>
       </c>
-      <c r="B2" s="22" t="n">
+      <c r="B2" s="30" t="n">
         <v>100</v>
       </c>
-      <c r="C2" s="22" t="n">
+      <c r="C2" s="30" t="n">
         <f aca="false">B2</f>
         <v>100</v>
       </c>
-      <c r="D2" s="22" t="n">
+      <c r="D2" s="30" t="n">
         <f aca="false">C2*1.05</f>
         <v>105</v>
       </c>
-      <c r="E2" s="22" t="n">
+      <c r="E2" s="30" t="n">
         <f aca="false">A2/B2*0.999</f>
         <v>0.054945</v>
       </c>
-      <c r="F2" s="22" t="n">
+      <c r="F2" s="30" t="n">
         <f aca="false">E2</f>
         <v>0.054945</v>
       </c>
-      <c r="G2" s="22" t="n">
+      <c r="G2" s="30" t="n">
         <f aca="false">F2*D2*0.999</f>
         <v>5.763455775</v>
       </c>
-      <c r="H2" s="29" t="n">
+      <c r="H2" s="31" t="n">
         <f aca="false">G2-A2</f>
         <v>0.263455775000001</v>
       </c>
     </row>
     <row r="3" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="n">
-        <f aca="false">A2</f>
-        <v>5.5</v>
-      </c>
-      <c r="B3" s="22" t="n">
+      <c r="A3" s="32" t="n">
+        <f aca="false">B3*E2</f>
+        <v>5.219775</v>
+      </c>
+      <c r="B3" s="30" t="n">
         <f aca="false">B2*0.95</f>
         <v>95</v>
       </c>
-      <c r="C3" s="22" t="n">
+      <c r="C3" s="30" t="n">
         <f aca="false">(B2+B3)/2</f>
         <v>97.5</v>
       </c>
-      <c r="D3" s="22" t="n">
+      <c r="D3" s="30" t="n">
         <f aca="false">C3*1.05</f>
         <v>102.375</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="30" t="n">
         <f aca="false">A3/B3*0.999</f>
-        <v>0.0578368421052632</v>
-      </c>
-      <c r="F3" s="22" t="n">
+        <v>0.054890055</v>
+      </c>
+      <c r="F3" s="30" t="n">
         <f aca="false">E3+F2</f>
-        <v>0.112781842105263</v>
-      </c>
-      <c r="G3" s="22" t="n">
+        <v>0.109835055</v>
+      </c>
+      <c r="G3" s="30" t="n">
         <f aca="false">F3*D3*0.999</f>
-        <v>11.5344950444408</v>
-      </c>
-      <c r="H3" s="29" t="n">
+        <v>11.2331193918694</v>
+      </c>
+      <c r="H3" s="31" t="n">
         <f aca="false">G3-A2-A3</f>
-        <v>0.534495044440789</v>
+        <v>0.513344391869376</v>
       </c>
     </row>
     <row r="4" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="n">
-        <f aca="false">A3*2</f>
-        <v>11</v>
-      </c>
-      <c r="B4" s="22" t="n">
+      <c r="A4" s="32" t="n">
+        <f aca="false">E3*B4*2</f>
+        <v>9.9076549275</v>
+      </c>
+      <c r="B4" s="30" t="n">
         <f aca="false">B3*0.95</f>
         <v>90.25</v>
       </c>
-      <c r="C4" s="22" t="n">
+      <c r="C4" s="30" t="n">
         <f aca="false">(B3+B4)/2</f>
         <v>92.625</v>
       </c>
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="30" t="n">
         <f aca="false">C4*1.05</f>
         <v>97.25625</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="30" t="n">
         <f aca="false">A4/B4*0.999</f>
-        <v>0.121761772853186</v>
-      </c>
-      <c r="F4" s="22" t="n">
+        <v>0.10967032989</v>
+      </c>
+      <c r="F4" s="30" t="n">
         <f aca="false">F3+E4</f>
-        <v>0.234543614958449</v>
-      </c>
-      <c r="G4" s="22" t="n">
+        <v>0.21950538489</v>
+      </c>
+      <c r="G4" s="30" t="n">
         <f aca="false">F4*D4*0.999</f>
-        <v>22.7880216198503</v>
-      </c>
-      <c r="H4" s="29" t="n">
+        <v>21.3269223186189</v>
+      </c>
+      <c r="H4" s="31" t="n">
         <f aca="false">G4-A4-A3-A2</f>
-        <v>0.788021619850326</v>
+        <v>0.699492391118856</v>
       </c>
     </row>
     <row r="5" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="n">
-        <f aca="false">A4*2</f>
-        <v>22</v>
-      </c>
-      <c r="B5" s="22" t="n">
+      <c r="A5" s="32" t="n">
+        <f aca="false">E4*B5*2</f>
+        <v>18.8057198178878</v>
+      </c>
+      <c r="B5" s="30" t="n">
         <f aca="false">B4*0.95</f>
         <v>85.7375</v>
       </c>
-      <c r="C5" s="22" t="n">
+      <c r="C5" s="30" t="n">
         <f aca="false">(B4+B5)/2</f>
         <v>87.99375</v>
       </c>
-      <c r="D5" s="22" t="n">
+      <c r="D5" s="30" t="n">
         <f aca="false">C5*1.05</f>
         <v>92.3934375</v>
       </c>
-      <c r="E5" s="22" t="n">
+      <c r="E5" s="30" t="n">
         <f aca="false">A5/B5*0.999</f>
-        <v>0.256340574427759</v>
-      </c>
-      <c r="F5" s="22" t="n">
+        <v>0.21912131912022</v>
+      </c>
+      <c r="F5" s="30" t="n">
         <f aca="false">F4+E5</f>
-        <v>0.490884189386208</v>
-      </c>
-      <c r="G5" s="22" t="n">
+        <v>0.43862670401022</v>
+      </c>
+      <c r="G5" s="30" t="n">
         <f aca="false">F5*D5*0.999</f>
-        <v>45.309123194121</v>
-      </c>
-      <c r="H5" s="29" t="n">
+        <v>40.4857027338365</v>
+      </c>
+      <c r="H5" s="31" t="n">
         <f aca="false">G5-A5-A4-A3-A2</f>
-        <v>1.30912319412097</v>
+        <v>1.05255298844871</v>
       </c>
     </row>
     <row r="6" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="n">
-        <f aca="false">A5*2</f>
-        <v>44</v>
-      </c>
-      <c r="B6" s="22" t="n">
+      <c r="A6" s="32" t="n">
+        <f aca="false">E5*B6*2</f>
+        <v>35.6951367863327</v>
+      </c>
+      <c r="B6" s="30" t="n">
         <f aca="false">B5*0.95</f>
         <v>81.450625</v>
       </c>
-      <c r="C6" s="22" t="n">
+      <c r="C6" s="30" t="n">
         <f aca="false">(B5+B6)/2</f>
         <v>83.5940625</v>
       </c>
-      <c r="D6" s="22" t="n">
+      <c r="D6" s="30" t="n">
         <f aca="false">C6*1.05</f>
         <v>87.773765625</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="30" t="n">
         <f aca="false">A6/B6*0.999</f>
-        <v>0.539664367216335</v>
-      </c>
-      <c r="F6" s="22" t="n">
+        <v>0.4378043956022</v>
+      </c>
+      <c r="F6" s="30" t="n">
         <f aca="false">F5+E6</f>
-        <v>1.03054855660254</v>
-      </c>
-      <c r="G6" s="22" t="n">
+        <v>0.87643109961242</v>
+      </c>
+      <c r="G6" s="30" t="n">
         <f aca="false">F6*D6*0.999</f>
-        <v>90.3646723449412</v>
-      </c>
-      <c r="H6" s="29" t="n">
+        <v>76.8507302659177</v>
+      </c>
+      <c r="H6" s="31" t="n">
         <f aca="false">G6-A6-A5-A4-A3-A2</f>
-        <v>2.36467234494124</v>
+        <v>1.72244373419721</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="n">
-        <f aca="false">A6*2</f>
-        <v>88</v>
-      </c>
-      <c r="B7" s="22" t="n">
+      <c r="A7" s="32" t="n">
+        <f aca="false">E6*B7*2</f>
+        <v>67.7529391341382</v>
+      </c>
+      <c r="B7" s="30" t="n">
         <f aca="false">B6*0.95</f>
         <v>77.37809375</v>
       </c>
-      <c r="C7" s="22" t="n">
+      <c r="C7" s="30" t="n">
         <f aca="false">(B6+B7)/2</f>
         <v>79.414359375</v>
       </c>
-      <c r="D7" s="22" t="n">
+      <c r="D7" s="30" t="n">
         <f aca="false">C7*1.05</f>
         <v>83.38507734375</v>
       </c>
-      <c r="E7" s="22" t="n">
+      <c r="E7" s="30" t="n">
         <f aca="false">A7/B7*0.999</f>
-        <v>1.13613550992913</v>
-      </c>
-      <c r="F7" s="22" t="n">
+        <v>0.874733182413195</v>
+      </c>
+      <c r="F7" s="30" t="n">
         <f aca="false">F6+E7</f>
-        <v>2.16668406653167</v>
-      </c>
-      <c r="G7" s="22" t="n">
+        <v>1.75116428202561</v>
+      </c>
+      <c r="G7" s="30" t="n">
         <f aca="false">F7*D7*0.999</f>
-        <v>180.488449348747</v>
-      </c>
-      <c r="H7" s="29" t="n">
+        <v>145.87494812922</v>
+      </c>
+      <c r="H7" s="31" t="n">
         <f aca="false">G7-A7-A6-A5-A4-A3-A2</f>
-        <v>4.48844934874677</v>
+        <v>2.99372246336131</v>
       </c>
       <c r="I7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="n">
-        <f aca="false">A7*2</f>
-        <v>176</v>
-      </c>
-      <c r="B8" s="22" t="n">
+      <c r="A8" s="32" t="n">
+        <f aca="false">E7*B8*2</f>
+        <v>128.601853770508</v>
+      </c>
+      <c r="B8" s="30" t="n">
         <f aca="false">B7*0.95</f>
         <v>73.5091890625</v>
       </c>
-      <c r="C8" s="22" t="n">
+      <c r="C8" s="30" t="n">
         <f aca="false">(B7+B8)/2</f>
         <v>75.44364140625</v>
       </c>
-      <c r="D8" s="22" t="n">
+      <c r="D8" s="30" t="n">
         <f aca="false">C8*1.05</f>
         <v>79.2158234765625</v>
       </c>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="30" t="n">
         <f aca="false">A8/B8*0.999</f>
-        <v>2.39186423142974</v>
-      </c>
-      <c r="F8" s="22" t="n">
+        <v>1.74771689846156</v>
+      </c>
+      <c r="F8" s="30" t="n">
         <f aca="false">F7+E8</f>
-        <v>4.55854829796141</v>
-      </c>
-      <c r="G8" s="22" t="n">
+        <v>3.49888118048718</v>
+      </c>
+      <c r="G8" s="30" t="n">
         <f aca="false">F8*D8*0.999</f>
-        <v>360.748048123415</v>
-      </c>
-      <c r="H8" s="29" t="n">
+        <v>276.88958720498</v>
+      </c>
+      <c r="H8" s="31" t="n">
         <f aca="false">G8-A8-A7-A6-A5-A4-A3-A2</f>
-        <v>8.74804812341478</v>
+        <v>5.40650776861355</v>
       </c>
       <c r="I8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="n">
-        <f aca="false">A8*2</f>
-        <v>352</v>
-      </c>
-      <c r="B9" s="22" t="n">
+      <c r="A9" s="32" t="n">
+        <f aca="false">E8*B9*2</f>
+        <v>244.099178641801</v>
+      </c>
+      <c r="B9" s="30" t="n">
         <f aca="false">B8*0.95</f>
         <v>69.833729609375</v>
       </c>
-      <c r="C9" s="22" t="n">
+      <c r="C9" s="30" t="n">
         <f aca="false">(B8+B9)/2</f>
         <v>71.6714593359375</v>
       </c>
-      <c r="D9" s="22" t="n">
+      <c r="D9" s="30" t="n">
         <f aca="false">C9*1.05</f>
         <v>75.2550323027344</v>
       </c>
-      <c r="E9" s="22" t="n">
+      <c r="E9" s="30" t="n">
         <f aca="false">A9/B9*0.999</f>
-        <v>5.03550364511524</v>
-      </c>
-      <c r="F9" s="22" t="n">
+        <v>3.4919383631262</v>
+      </c>
+      <c r="F9" s="30" t="n">
         <f aca="false">F8+E9</f>
-        <v>9.59405194307665</v>
-      </c>
-      <c r="G9" s="22" t="n">
+        <v>6.99081954361338</v>
+      </c>
+      <c r="G9" s="30" t="n">
         <f aca="false">F9*D9*0.999</f>
-        <v>721.278688201455</v>
-      </c>
-      <c r="H9" s="29" t="n">
+        <v>525.568256226635</v>
+      </c>
+      <c r="H9" s="31" t="n">
         <f aca="false">G9-A9-A8-A7-A6-A5-A4-A3--A2</f>
-        <v>28.2786882014549</v>
+        <v>20.9859981484677</v>
       </c>
       <c r="I9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="n">
-        <f aca="false">A9*2</f>
-        <v>704</v>
-      </c>
-      <c r="B10" s="22" t="n">
+      <c r="A10" s="32" t="n">
+        <f aca="false">E9*B10*2</f>
+        <v>463.324650980002</v>
+      </c>
+      <c r="B10" s="33" t="n">
         <f aca="false">B9*0.95</f>
         <v>66.3420431289062</v>
       </c>
-      <c r="C10" s="22" t="n">
+      <c r="C10" s="33" t="n">
         <f aca="false">(B9+B10)/2</f>
         <v>68.0878863691406</v>
       </c>
-      <c r="D10" s="22" t="n">
+      <c r="D10" s="33" t="n">
         <f aca="false">C10*1.05</f>
         <v>71.4922806875976</v>
       </c>
-      <c r="E10" s="22" t="n">
+      <c r="E10" s="33" t="n">
         <f aca="false">A10/B10*0.999</f>
-        <v>10.6010603055058</v>
-      </c>
-      <c r="F10" s="22" t="n">
+        <v>6.97689284952615</v>
+      </c>
+      <c r="F10" s="33" t="n">
         <f aca="false">F9+E10</f>
-        <v>20.1951122485824</v>
-      </c>
-      <c r="G10" s="22" t="n">
+        <v>13.9677123931395</v>
+      </c>
+      <c r="G10" s="33" t="n">
         <f aca="false">F10*D10*0.999</f>
-        <v>1442.3508387598</v>
-      </c>
-      <c r="H10" s="29" t="n">
+        <v>997.585031358994</v>
+      </c>
+      <c r="H10" s="31" t="n">
         <f aca="false">G10-A10-A9-A8-A7-A6-A5-A4-A3-A2</f>
-        <v>34.3508387598024</v>
+        <v>18.6781223008254</v>
       </c>
       <c r="I10" s="22"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <f aca="false">A2+A3+A4+A5+A6+A7+A8+A9+A10</f>
+        <v>978.906909058168</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">USDT покупка</t>
   </si>
@@ -58,7 +58,46 @@
     <t xml:space="preserve">комиссия</t>
   </si>
   <si>
-    <t xml:space="preserve">итого</t>
+    <t xml:space="preserve">Кол-во монет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Требуется на 1 монету</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего USDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общий доход</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ступень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 ступень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 ступень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 ступень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 ступень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 ступень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 ступень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 ступень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 ступень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 ступень</t>
   </si>
 </sst>
 </file>
@@ -111,7 +150,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,8 +169,20 @@
         <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -148,20 +199,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
@@ -169,13 +206,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="thin"/>
       <top/>
       <bottom/>
@@ -183,22 +213,29 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
-      <top/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -228,11 +265,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -257,15 +298,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -277,36 +310,64 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -334,7 +395,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF158466"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -367,7 +428,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -492,58 +553,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.91"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="7" t="n">
         <v>5.5</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="8" t="n">
         <v>100</v>
       </c>
       <c r="C2" s="8" t="n">
@@ -562,63 +623,63 @@
         <f aca="false">E2</f>
         <v>0.054945</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="8" t="n">
         <f aca="false">F2*D2*J4</f>
         <v>5.763455775</v>
       </c>
-      <c r="H2" s="10" t="n">
+      <c r="H2" s="9" t="n">
         <f aca="false">G2-A2</f>
         <v>0.263455775000001</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="6" t="n">
         <v>1.05</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="10" t="n">
         <f aca="false">B3*E2</f>
         <v>5.219775</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="11" t="n">
         <f aca="false">B2*J3</f>
         <v>95</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="11" t="n">
         <f aca="false">(B2+B3)/2</f>
         <v>97.5</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="11" t="n">
         <f aca="false">C3*J2</f>
         <v>102.375</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="11" t="n">
         <f aca="false">A3/B3*J4</f>
         <v>0.054890055</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F3" s="11" t="n">
         <f aca="false">E3+F2</f>
         <v>0.109835055</v>
       </c>
-      <c r="G3" s="14" t="n">
+      <c r="G3" s="11" t="n">
         <f aca="false">F3*D3*J4</f>
         <v>11.2331193918694</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="H3" s="9" t="n">
         <f aca="false">G3-A2-A3</f>
         <v>0.513344391869376</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="6" t="n">
         <v>0.95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="10" t="n">
         <f aca="false">E3*B4*2</f>
         <v>9.9076549275</v>
       </c>
@@ -626,75 +687,75 @@
         <f aca="false">B3*J3</f>
         <v>90.25</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="12" t="n">
         <f aca="false">(B3+B4)/2</f>
         <v>92.625</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="12" t="n">
         <f aca="false">C4*J2</f>
         <v>97.25625</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="12" t="n">
         <f aca="false">A4/B4*J4</f>
         <v>0.10967032989</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="12" t="n">
         <f aca="false">F3+E4</f>
         <v>0.21950538489</v>
       </c>
-      <c r="G4" s="14" t="n">
+      <c r="G4" s="12" t="n">
         <f aca="false">F4*D4*J4</f>
         <v>21.3269223186189</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="9" t="n">
         <f aca="false">G4-A4-A3-A2</f>
-        <v>0.699492391118856</v>
-      </c>
-      <c r="I4" s="5" t="s">
+        <v>0.699492391118852</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="6" t="n">
         <v>0.999</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="10" t="n">
         <f aca="false">E4*B5*2</f>
         <v>18.8057198178878</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="11" t="n">
         <f aca="false">B4*0.95</f>
         <v>85.7375</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="11" t="n">
         <f aca="false">(B4+B5)/2</f>
         <v>87.99375</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="13" t="n">
         <f aca="false">C5*J2</f>
         <v>92.3934375</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="11" t="n">
         <f aca="false">A5/B5*J4</f>
         <v>0.21912131912022</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="11" t="n">
         <f aca="false">F4+E5</f>
         <v>0.43862670401022</v>
       </c>
-      <c r="G5" s="14" t="n">
+      <c r="G5" s="11" t="n">
         <f aca="false">F5*D5*J4</f>
         <v>40.4857027338365</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="9" t="n">
         <f aca="false">G5-A5-A4-A3-A2</f>
         <v>1.05255298844871</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="10" t="n">
         <f aca="false">E5*B6*2</f>
         <v>35.6951367863327</v>
       </c>
@@ -702,69 +763,69 @@
         <f aca="false">B5*J3</f>
         <v>81.450625</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="12" t="n">
         <f aca="false">(B5+B6)/2</f>
         <v>83.5940625</v>
       </c>
-      <c r="D6" s="15" t="n">
+      <c r="D6" s="14" t="n">
         <f aca="false">C6*J2</f>
         <v>87.773765625</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="12" t="n">
         <f aca="false">A6/B6*J4</f>
         <v>0.4378043956022</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="12" t="n">
         <f aca="false">F5+E6</f>
         <v>0.87643109961242</v>
       </c>
-      <c r="G6" s="14" t="n">
+      <c r="G6" s="12" t="n">
         <f aca="false">F6*D6*J4</f>
         <v>76.8507302659177</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="9" t="n">
         <f aca="false">G6-A6-A5-A4-A3-A2</f>
-        <v>1.72244373419721</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+        <v>1.7224437341972</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="10" t="n">
         <f aca="false">E6*B7*2</f>
         <v>67.7529391341382</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="11" t="n">
         <f aca="false">B6*J3</f>
         <v>77.37809375</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="11" t="n">
         <f aca="false">(B6+B7)/2</f>
         <v>79.414359375</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="11" t="n">
         <f aca="false">C7*J2</f>
         <v>83.38507734375</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="11" t="n">
         <f aca="false">A7/B7*J4</f>
         <v>0.874733182413195</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="11" t="n">
         <f aca="false">F6+E7</f>
         <v>1.75116428202561</v>
       </c>
-      <c r="G7" s="14" t="n">
+      <c r="G7" s="11" t="n">
         <f aca="false">F7*D7*J4</f>
         <v>145.87494812922</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="9" t="n">
         <f aca="false">G7-A7-A6-A5-A4-A3-A2</f>
         <v>2.99372246336131</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="10" t="n">
         <f aca="false">E7*B8*2</f>
         <v>128.601853770508</v>
       </c>
@@ -772,146 +833,333 @@
         <f aca="false">B7*J3</f>
         <v>73.5091890625</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="12" t="n">
         <f aca="false">(B7+B8)/2</f>
         <v>75.44364140625</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="12" t="n">
         <f aca="false">C8*J2</f>
         <v>79.2158234765625</v>
       </c>
-      <c r="E8" s="13" t="n">
+      <c r="E8" s="12" t="n">
         <f aca="false">A8/B8*J4</f>
         <v>1.74771689846156</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="12" t="n">
         <f aca="false">F7+E8</f>
         <v>3.49888118048718</v>
       </c>
-      <c r="G8" s="14" t="n">
+      <c r="G8" s="12" t="n">
         <f aca="false">F8*D8*J4</f>
         <v>276.88958720498</v>
       </c>
-      <c r="H8" s="10" t="n">
+      <c r="H8" s="9" t="n">
         <f aca="false">G8-A8-A7-A6-A5-A4-A3-A2</f>
-        <v>5.40650776861355</v>
+        <v>5.40650776861361</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="10" t="n">
         <f aca="false">E8*B9*2</f>
         <v>244.099178641801</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="11" t="n">
         <f aca="false">B8*J3</f>
         <v>69.833729609375</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="11" t="n">
         <f aca="false">(B8+B9)/2</f>
         <v>71.6714593359375</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="11" t="n">
         <f aca="false">C9*J2</f>
         <v>75.2550323027344</v>
       </c>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="11" t="n">
         <f aca="false">A9/B9*J4</f>
         <v>3.4919383631262</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="11" t="n">
         <f aca="false">F8+E9</f>
         <v>6.99081954361338</v>
       </c>
-      <c r="G9" s="14" t="n">
+      <c r="G9" s="11" t="n">
         <f aca="false">F9*D9*J4</f>
         <v>525.568256226635</v>
       </c>
-      <c r="H9" s="10" t="n">
+      <c r="H9" s="9" t="n">
         <f aca="false">G9-A9-A8-A7-A6-A5-A4-A3-A2</f>
-        <v>9.98599814846767</v>
+        <v>9.98599814846779</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="10" t="n">
         <f aca="false">E9*B10*2</f>
-        <v>463.324650980002</v>
+        <v>463.324650980001</v>
       </c>
       <c r="B10" s="12" t="n">
         <f aca="false">B9*J3</f>
         <v>66.3420431289062</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="12" t="n">
         <f aca="false">(B9+B10)/2</f>
         <v>68.0878863691406</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="12" t="n">
         <f aca="false">C10*J2</f>
         <v>71.4922806875976</v>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="12" t="n">
         <f aca="false">A10/B10*J4</f>
         <v>6.97689284952615</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="F10" s="12" t="n">
         <f aca="false">F9+E10</f>
         <v>13.9677123931395</v>
       </c>
-      <c r="G10" s="14" t="n">
+      <c r="G10" s="12" t="n">
         <f aca="false">F10*D10*J4</f>
-        <v>997.585031358994</v>
-      </c>
-      <c r="H10" s="10" t="n">
+        <v>997.585031358993</v>
+      </c>
+      <c r="H10" s="9" t="n">
         <f aca="false">G10-A10-A9-A8-A7-A6-A5-A4-A3-A2</f>
-        <v>18.6781223008254</v>
+        <v>18.6781223008249</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="10" t="n">
         <f aca="false">E10*B11*2</f>
         <v>879.436520025141</v>
       </c>
-      <c r="B11" s="16" t="n">
+      <c r="B11" s="15" t="n">
         <f aca="false">B10*J3</f>
         <v>63.0249409724609</v>
       </c>
-      <c r="C11" s="17" t="n">
+      <c r="C11" s="15" t="n">
         <f aca="false">(B10+B11)/2</f>
         <v>64.6834920506836</v>
       </c>
-      <c r="D11" s="17" t="n">
+      <c r="D11" s="15" t="n">
         <f aca="false">C11*J2</f>
         <v>67.9176666532178</v>
       </c>
-      <c r="E11" s="17" t="n">
+      <c r="E11" s="15" t="n">
         <f aca="false">A11/B11*J4</f>
         <v>13.9398319133533</v>
       </c>
-      <c r="F11" s="17" t="n">
+      <c r="F11" s="15" t="n">
         <f aca="false">F10+E11</f>
         <v>27.9075443064928</v>
       </c>
-      <c r="G11" s="18" t="n">
+      <c r="G11" s="15" t="n">
         <f aca="false">F11*D11*J4</f>
-        <v>1893.51987602696</v>
-      </c>
-      <c r="H11" s="10" t="n">
+        <v>1893.51987602697</v>
+      </c>
+      <c r="H11" s="9" t="n">
         <f aca="false">G11-A11-A10-A9-A8-A7-A6-A5-A4-A3</f>
-        <v>40.6764469436547</v>
+        <v>40.676446943656</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="19" t="n">
+      <c r="B13" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="21" t="n">
+        <f aca="false">A2</f>
+        <v>5.5</v>
+      </c>
+      <c r="C15" s="21" t="n">
+        <f aca="false">B15*B13</f>
+        <v>16.5</v>
+      </c>
+      <c r="D15" s="22" t="n">
+        <f aca="false">H2*B13</f>
+        <v>0.790367325000002</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="23" t="n">
+        <f aca="false">A2+A3</f>
+        <v>10.719775</v>
+      </c>
+      <c r="C16" s="23" t="n">
+        <f aca="false">B16*B13</f>
+        <v>32.159325</v>
+      </c>
+      <c r="D16" s="22" t="n">
+        <f aca="false">H3*B13</f>
+        <v>1.54003317560813</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="24" t="n">
+        <f aca="false">A2+A3+A4</f>
+        <v>20.6274299275</v>
+      </c>
+      <c r="C17" s="24" t="n">
+        <f aca="false">B17*B13</f>
+        <v>61.8822897825</v>
+      </c>
+      <c r="D17" s="22" t="n">
+        <f aca="false">H4*B13</f>
+        <v>2.09847717335656</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="23" t="n">
+        <f aca="false">A2+A3+A4+A5</f>
+        <v>39.4331497453878</v>
+      </c>
+      <c r="C18" s="23" t="n">
+        <f aca="false">B18*B13</f>
+        <v>118.299449236163</v>
+      </c>
+      <c r="D18" s="22" t="n">
+        <f aca="false">H5*B13</f>
+        <v>3.15765896534614</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="24" t="n">
+        <f aca="false">A2+A3+A4+A5+A6</f>
+        <v>75.1282865317205</v>
+      </c>
+      <c r="C19" s="24" t="n">
+        <f aca="false">B19*B13</f>
+        <v>225.384859595161</v>
+      </c>
+      <c r="D19" s="22" t="n">
+        <f aca="false">H6*B13</f>
+        <v>5.16733120259161</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="23" t="n">
+        <f aca="false">A2+A3+A4+A5+A6+A7</f>
+        <v>142.881225665859</v>
+      </c>
+      <c r="C20" s="23" t="n">
+        <f aca="false">B20*B13</f>
+        <v>428.643676997576</v>
+      </c>
+      <c r="D20" s="22" t="n">
+        <f aca="false">H7*B13</f>
+        <v>8.98116739008394</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="24" t="n">
+        <f aca="false">A2+A3+A4+A5+A6+A7+A8</f>
+        <v>271.483079436366</v>
+      </c>
+      <c r="C21" s="24" t="n">
+        <f aca="false">B21*B13</f>
+        <v>814.449238309099</v>
+      </c>
+      <c r="D21" s="22" t="n">
+        <f aca="false">H8*B13</f>
+        <v>16.2195233058408</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="23" t="n">
+        <f aca="false">A2+A3+A4+A5+A6+A7+A8+A9</f>
+        <v>515.582258078167</v>
+      </c>
+      <c r="C22" s="23" t="n">
+        <f aca="false">B22*B13</f>
+        <v>1546.7467742345</v>
+      </c>
+      <c r="D22" s="22" t="n">
+        <f aca="false">H9*B13</f>
+        <v>29.9579944454034</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="24" t="n">
+        <f aca="false">A2+A3+A4+A5+A6+A7+A8+A9+A10</f>
+        <v>978.906909058168</v>
+      </c>
+      <c r="C23" s="24" t="n">
+        <f aca="false">B23*B13</f>
+        <v>2936.7207271745</v>
+      </c>
+      <c r="D23" s="22" t="n">
+        <f aca="false">H10*B13</f>
+        <v>56.0343669024747</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="25" t="n">
         <f aca="false">A2+A3+A4+A5+A6+A7+A8+A9+A10+A11</f>
         <v>1858.34342908331</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="C24" s="25" t="n">
+        <f aca="false">B24*B13</f>
+        <v>5575.03028724993</v>
+      </c>
+      <c r="D24" s="22" t="n">
+        <f aca="false">H11*B13</f>
+        <v>122.029340830968</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
